--- a/misc/startup.xlsx
+++ b/misc/startup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9555" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9555" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="member" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4828" uniqueCount="4462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4940" uniqueCount="4568">
   <si>
     <t>温岩</t>
     <rPh sb="0" eb="1">
@@ -46211,13 +46211,1115 @@
   </si>
   <si>
     <t>ご確認の上、DefectのCloseをお願いします。</t>
+  </si>
+  <si>
+    <t>python lib:os,csv,re,argparse,queue</t>
+  </si>
+  <si>
+    <t>dir()</t>
+  </si>
+  <si>
+    <t>sys: sys.exit(), sys.path, sys.platform, sys.version, sys.stdin.readline()</t>
+  </si>
+  <si>
+    <t>os: os.getcwd(),os.name,os.environ,os.listdir(), os.walk()</t>
+  </si>
+  <si>
+    <t>re:</t>
+  </si>
+  <si>
+    <t>[on_true] if [expression] else [on_false]</t>
+  </si>
+  <si>
+    <t>perl python vbs ruby bat c cpp cs java arm</t>
+  </si>
+  <si>
+    <t>=IF($A21="",1,0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ZA!xs2CD#</t>
+  </si>
+  <si>
+    <t>fddl0101</t>
+  </si>
+  <si>
+    <t>fddl0101hdd</t>
+  </si>
+  <si>
+    <t>User Name:wenyan</t>
+  </si>
+  <si>
+    <t>Password:eHYK9g</t>
+  </si>
+  <si>
+    <t>環境</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かんきょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直接</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょくせつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引き継ぐ</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひきつぐ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接替，移交。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事務</t>
+    <rPh sb="0" eb="2">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拠点</t>
+    <rPh sb="0" eb="2">
+      <t>キョテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょてん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>据点。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎</t>
+    <rPh sb="0" eb="1">
+      <t>ゴト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>每，每次。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>…一起…，包括在内。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構築</t>
+    <rPh sb="0" eb="2">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうちく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>构筑，修筑。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備える</t>
+    <rPh sb="0" eb="1">
+      <t>ソナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そなえる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>配</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，防</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>具有。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他下一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>只有，只能，只好。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おちつく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落着く</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>稳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定，平息。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沉着，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>镇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定居，落</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>归结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自五</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盛込む</t>
+    <rPh sb="0" eb="2">
+      <t>モリコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もりこむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>添</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申訳</t>
+    <rPh sb="0" eb="2">
+      <t>モウシワケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もうしわけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解，申</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>辩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返事</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へんじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>回答，答</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回信，复信。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若干</t>
+    <rPh sb="0" eb="2">
+      <t>ジャッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゃっかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接触</t>
+    <rPh sb="0" eb="2">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せっしょく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>煙</t>
+    <rPh sb="0" eb="1">
+      <t>ケムリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>けむり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンデンサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こんでんさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>condenser</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>づらく</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辛い</t>
+    <rPh sb="0" eb="1">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>からい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不便。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接尾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け取り</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うけとり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>接受。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避ける</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>躲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避，避开。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避免。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>忌避。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他下一</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限る</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぎる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>限…，只限。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構う</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かまう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自五</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>介意，在乎。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逗弄。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dr. Gabriel Muresan</t>
+  </si>
+  <si>
+    <t>Director Embedded Software</t>
+  </si>
+  <si>
+    <t>Cypress Semiconductor GmbH</t>
+  </si>
+  <si>
+    <t>office:   +49(6103)5099-128 </t>
+  </si>
+  <si>
+    <t>cell:     +49(172)3732216 </t>
+  </si>
+  <si>
+    <t>email:    gabriel.muresan@cypress.com  </t>
+  </si>
+  <si>
+    <t>web:      www.cypress.com</t>
+  </si>
+  <si>
+    <t>address:  Pittlerstraße 47</t>
+  </si>
+  <si>
+    <t>          63225 Langen, Germany</t>
+  </si>
+  <si>
+    <t>参照</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さんしょう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にしたほうがよさそうです。</t>
+  </si>
+  <si>
+    <t>誤る</t>
+    <rPh sb="0" eb="1">
+      <t>アヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あやまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>搞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，弄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贻误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，耽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらまし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>替る</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従う</t>
+    <rPh sb="0" eb="1">
+      <t>シタガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かわって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したがう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>したがって</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連れる</t>
+    <rPh sb="0" eb="1">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つれる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つれて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対する</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>たいして</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46617,6 +47719,27 @@
       <color rgb="FF2F2F2F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -47416,7 +48539,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -48125,6 +49248,9 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -48252,6 +49378,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -48721,10 +49856,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -48968,62 +50103,79 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="J37" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B38" s="227" t="s">
         <v>4300</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B39" s="227" t="s">
         <v>4301</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="J39" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="227" t="s">
         <v>4302</v>
       </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="J40" t="s">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B41" s="227" t="s">
         <v>4303</v>
       </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="J41" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B42" s="227" t="s">
         <v>4304</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B43" s="227" t="s">
         <v>4305</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B44" s="227" t="s">
         <v>4306</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B45" s="228" t="s">
         <v>4307</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B47" s="229" t="s">
         <v>4310</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B48" s="230" t="s">
         <v>4311</v>
       </c>
@@ -49121,17 +50273,69 @@
         <v>4334</v>
       </c>
     </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B72" s="281" t="s">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B73" s="282" t="s">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B74" s="281" t="s">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B76" s="1" t="s">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B77" s="1" t="s">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B78" s="1" t="s">
+        <v>4545</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B79" s="1" t="s">
+        <v>4546</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B80" s="1" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B81" s="1" t="s">
+        <v>4548</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B35" r:id="rId1"/>
     <hyperlink ref="B45" r:id="rId2" display="mailto:Terumi.Yoshimura@cypress.com"/>
     <hyperlink ref="B53" r:id="rId3" display="http://www.cypress.com/"/>
     <hyperlink ref="B70" r:id="rId4" display="mailto:akis@cypress.com"/>
+    <hyperlink ref="B76" r:id="rId5" display="tel:+49(6103)5099-128"/>
+    <hyperlink ref="B77" r:id="rId6" display="tel:+49(172)3732216"/>
+    <hyperlink ref="B78" r:id="rId7" display="mailto:gabriel.muresan@cypress.com"/>
+    <hyperlink ref="B79" r:id="rId8" display="http://www.cypress.com/"/>
+    <hyperlink ref="B80" r:id="rId9" display="x-apple-data-detectors://4/4"/>
+    <hyperlink ref="B81" r:id="rId10" display="x-apple-data-detectors://4/4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -58060,10 +59264,10 @@
       <c r="U10" s="127"/>
       <c r="V10" s="126"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="240" t="s">
+      <c r="X10" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="Y10" s="241"/>
+      <c r="Y10" s="242"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="102"/>
       <c r="AB10" s="37"/>
@@ -58073,11 +59277,11 @@
       <c r="AF10" s="39"/>
       <c r="AG10" s="76"/>
       <c r="AH10" s="116"/>
-      <c r="AI10" s="240" t="s">
+      <c r="AI10" s="241" t="s">
         <v>109</v>
       </c>
-      <c r="AJ10" s="256"/>
-      <c r="AK10" s="241"/>
+      <c r="AJ10" s="257"/>
+      <c r="AK10" s="242"/>
       <c r="AL10" s="112"/>
       <c r="AM10" s="125"/>
       <c r="AN10" s="25"/>
@@ -58096,48 +59300,48 @@
       <c r="A11" s="20"/>
       <c r="B11" s="55"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="267" t="s">
+      <c r="D11" s="268" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="268"/>
-      <c r="F11" s="267" t="s">
+      <c r="E11" s="269"/>
+      <c r="F11" s="268" t="s">
         <v>3722</v>
       </c>
-      <c r="G11" s="268"/>
+      <c r="G11" s="269"/>
       <c r="H11" s="28"/>
       <c r="I11" s="53"/>
-      <c r="J11" s="265" t="s">
+      <c r="J11" s="266" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="266"/>
-      <c r="L11" s="240" t="s">
+      <c r="K11" s="267"/>
+      <c r="L11" s="241" t="s">
         <v>106</v>
       </c>
-      <c r="M11" s="241"/>
+      <c r="M11" s="242"/>
       <c r="N11" s="46"/>
       <c r="O11" s="31"/>
-      <c r="P11" s="273" t="s">
+      <c r="P11" s="274" t="s">
         <v>105</v>
       </c>
-      <c r="Q11" s="274"/>
-      <c r="R11" s="274"/>
-      <c r="S11" s="275"/>
+      <c r="Q11" s="275"/>
+      <c r="R11" s="275"/>
+      <c r="S11" s="276"/>
       <c r="T11" s="53"/>
       <c r="U11" s="123"/>
       <c r="V11" s="122"/>
       <c r="W11" s="30"/>
-      <c r="X11" s="238" t="s">
+      <c r="X11" s="239" t="s">
         <v>104</v>
       </c>
-      <c r="Y11" s="239"/>
+      <c r="Y11" s="240"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="102"/>
-      <c r="AB11" s="240"/>
-      <c r="AC11" s="241"/>
-      <c r="AD11" s="240" t="s">
+      <c r="AB11" s="241"/>
+      <c r="AC11" s="242"/>
+      <c r="AD11" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AE11" s="241"/>
+      <c r="AE11" s="242"/>
       <c r="AF11" s="39"/>
       <c r="AG11" s="76"/>
       <c r="AH11" s="116"/>
@@ -58151,10 +59355,10 @@
       <c r="AP11" s="107"/>
       <c r="AQ11" s="107"/>
       <c r="AR11" s="22"/>
-      <c r="AS11" s="257" t="s">
+      <c r="AS11" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="AT11" s="258"/>
+      <c r="AT11" s="259"/>
       <c r="AU11" s="28"/>
       <c r="AV11" s="3"/>
       <c r="AW11" s="21"/>
@@ -58166,18 +59370,18 @@
       <c r="C12" s="7"/>
       <c r="D12" s="25"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="238" t="s">
+      <c r="F12" s="239" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="239"/>
+      <c r="G12" s="240"/>
       <c r="H12" s="29"/>
       <c r="I12" s="42"/>
-      <c r="J12" s="238"/>
-      <c r="K12" s="239"/>
-      <c r="L12" s="238" t="s">
+      <c r="J12" s="239"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="239" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="239"/>
+      <c r="M12" s="240"/>
       <c r="N12" s="29"/>
       <c r="O12" s="22"/>
       <c r="P12" s="119"/>
@@ -58194,10 +59398,10 @@
       <c r="AA12" s="98"/>
       <c r="AB12" s="25"/>
       <c r="AC12" s="23"/>
-      <c r="AD12" s="260" t="s">
+      <c r="AD12" s="261" t="s">
         <v>100</v>
       </c>
-      <c r="AE12" s="261"/>
+      <c r="AE12" s="262"/>
       <c r="AF12" s="30"/>
       <c r="AG12" s="76"/>
       <c r="AH12" s="116"/>
@@ -58211,8 +59415,8 @@
       <c r="AP12" s="107"/>
       <c r="AQ12" s="36"/>
       <c r="AR12" s="22"/>
-      <c r="AS12" s="259"/>
-      <c r="AT12" s="258"/>
+      <c r="AS12" s="260"/>
+      <c r="AT12" s="259"/>
       <c r="AU12" s="28"/>
       <c r="AV12" s="3"/>
       <c r="AW12" s="21"/>
@@ -58222,18 +59426,18 @@
       <c r="A13" s="20"/>
       <c r="B13" s="55"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="244"/>
       <c r="F13" s="37"/>
       <c r="G13" s="36"/>
       <c r="H13" s="28"/>
       <c r="I13" s="53"/>
       <c r="J13" s="37"/>
       <c r="K13" s="36"/>
-      <c r="L13" s="242" t="s">
+      <c r="L13" s="243" t="s">
         <v>99</v>
       </c>
-      <c r="M13" s="243"/>
+      <c r="M13" s="244"/>
       <c r="N13" s="46"/>
       <c r="O13" s="40"/>
       <c r="P13" s="37"/>
@@ -58265,10 +59469,10 @@
       <c r="AP13" s="24"/>
       <c r="AQ13" s="23"/>
       <c r="AR13" s="31"/>
-      <c r="AS13" s="238" t="s">
+      <c r="AS13" s="239" t="s">
         <v>98</v>
       </c>
-      <c r="AT13" s="239"/>
+      <c r="AT13" s="240"/>
       <c r="AU13" s="29"/>
       <c r="AV13" s="3"/>
       <c r="AW13" s="21"/>
@@ -58278,54 +59482,54 @@
       <c r="A14" s="20"/>
       <c r="B14" s="55"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="267" t="s">
+      <c r="D14" s="268" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="268"/>
-      <c r="F14" s="269" t="s">
+      <c r="E14" s="269"/>
+      <c r="F14" s="270" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="270"/>
+      <c r="G14" s="271"/>
       <c r="H14" s="28"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="240" t="s">
+      <c r="J14" s="241" t="s">
         <v>95</v>
       </c>
-      <c r="K14" s="241"/>
-      <c r="L14" s="240" t="s">
+      <c r="K14" s="242"/>
+      <c r="L14" s="241" t="s">
         <v>94</v>
       </c>
-      <c r="M14" s="241"/>
+      <c r="M14" s="242"/>
       <c r="N14" s="46"/>
       <c r="O14" s="40"/>
-      <c r="P14" s="240" t="s">
+      <c r="P14" s="241" t="s">
         <v>93</v>
       </c>
-      <c r="Q14" s="241"/>
-      <c r="R14" s="240" t="s">
+      <c r="Q14" s="242"/>
+      <c r="R14" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="S14" s="241"/>
+      <c r="S14" s="242"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="240" t="s">
+      <c r="V14" s="241" t="s">
         <v>91</v>
       </c>
-      <c r="W14" s="241"/>
-      <c r="X14" s="236" t="s">
+      <c r="W14" s="242"/>
+      <c r="X14" s="237" t="s">
         <v>90</v>
       </c>
-      <c r="Y14" s="237"/>
+      <c r="Y14" s="238"/>
       <c r="Z14" s="39"/>
       <c r="AA14" s="102"/>
-      <c r="AB14" s="240" t="s">
+      <c r="AB14" s="241" t="s">
         <v>89</v>
       </c>
-      <c r="AC14" s="241"/>
-      <c r="AD14" s="240" t="s">
+      <c r="AC14" s="242"/>
+      <c r="AD14" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AE14" s="241"/>
+      <c r="AE14" s="242"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
@@ -58350,40 +59554,40 @@
       <c r="A15" s="20"/>
       <c r="B15" s="55"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="238" t="s">
+      <c r="D15" s="239"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="239"/>
+      <c r="G15" s="240"/>
       <c r="H15" s="29"/>
       <c r="I15" s="42"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="239"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="240"/>
       <c r="L15" s="25"/>
       <c r="M15" s="23"/>
       <c r="N15" s="29"/>
       <c r="O15" s="31"/>
-      <c r="P15" s="238" t="s">
+      <c r="P15" s="239" t="s">
         <v>87</v>
       </c>
-      <c r="Q15" s="239"/>
-      <c r="R15" s="238" t="s">
+      <c r="Q15" s="240"/>
+      <c r="R15" s="239" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="239"/>
+      <c r="S15" s="240"/>
       <c r="T15" s="29"/>
       <c r="U15" s="31"/>
-      <c r="V15" s="238"/>
-      <c r="W15" s="239"/>
-      <c r="X15" s="238" t="s">
+      <c r="V15" s="239"/>
+      <c r="W15" s="240"/>
+      <c r="X15" s="239" t="s">
         <v>85</v>
       </c>
-      <c r="Y15" s="239"/>
+      <c r="Y15" s="240"/>
       <c r="Z15" s="30"/>
       <c r="AA15" s="98"/>
-      <c r="AB15" s="238"/>
-      <c r="AC15" s="239"/>
+      <c r="AB15" s="239"/>
+      <c r="AC15" s="240"/>
       <c r="AD15" s="25"/>
       <c r="AE15" s="23"/>
       <c r="AF15" s="30"/>
@@ -58466,52 +59670,52 @@
       <c r="A17" s="20"/>
       <c r="B17" s="55"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="267"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="271" t="s">
+      <c r="D17" s="268"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="272" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="272"/>
+      <c r="G17" s="273"/>
       <c r="H17" s="46"/>
       <c r="I17" s="53"/>
-      <c r="J17" s="240" t="s">
+      <c r="J17" s="241" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="241"/>
-      <c r="L17" s="236" t="s">
+      <c r="K17" s="242"/>
+      <c r="L17" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="237"/>
+      <c r="M17" s="238"/>
       <c r="N17" s="46"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="240" t="s">
+      <c r="P17" s="241" t="s">
         <v>80</v>
       </c>
-      <c r="Q17" s="241"/>
-      <c r="R17" s="265" t="s">
+      <c r="Q17" s="242"/>
+      <c r="R17" s="266" t="s">
         <v>79</v>
       </c>
-      <c r="S17" s="266"/>
-      <c r="T17" s="240"/>
-      <c r="U17" s="241"/>
-      <c r="V17" s="240" t="s">
+      <c r="S17" s="267"/>
+      <c r="T17" s="241"/>
+      <c r="U17" s="242"/>
+      <c r="V17" s="241" t="s">
         <v>78</v>
       </c>
-      <c r="W17" s="241"/>
-      <c r="X17" s="265" t="s">
+      <c r="W17" s="242"/>
+      <c r="X17" s="266" t="s">
         <v>77</v>
       </c>
-      <c r="Y17" s="266"/>
+      <c r="Y17" s="267"/>
       <c r="Z17" s="39"/>
       <c r="AA17" s="102"/>
-      <c r="AB17" s="240" t="s">
+      <c r="AB17" s="241" t="s">
         <v>76</v>
       </c>
-      <c r="AC17" s="241"/>
-      <c r="AD17" s="240" t="s">
+      <c r="AC17" s="242"/>
+      <c r="AD17" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="AE17" s="241"/>
+      <c r="AE17" s="242"/>
       <c r="AF17" s="39"/>
       <c r="AG17" s="76"/>
       <c r="AH17" s="97"/>
@@ -58538,26 +59742,26 @@
       <c r="A18" s="20"/>
       <c r="B18" s="55"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="238" t="s">
+      <c r="D18" s="239" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="239"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="239"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="240"/>
       <c r="H18" s="29"/>
       <c r="I18" s="42"/>
-      <c r="J18" s="238"/>
-      <c r="K18" s="239"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="240"/>
       <c r="L18" s="25"/>
       <c r="M18" s="23"/>
       <c r="N18" s="29"/>
       <c r="O18" s="31"/>
-      <c r="P18" s="238" t="s">
+      <c r="P18" s="239" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="239"/>
-      <c r="R18" s="238"/>
-      <c r="S18" s="239"/>
+      <c r="Q18" s="240"/>
+      <c r="R18" s="239"/>
+      <c r="S18" s="240"/>
       <c r="T18" s="29"/>
       <c r="U18" s="31"/>
       <c r="V18" s="25"/>
@@ -58568,10 +59772,10 @@
       <c r="AA18" s="98"/>
       <c r="AB18" s="25"/>
       <c r="AC18" s="23"/>
-      <c r="AD18" s="238" t="s">
+      <c r="AD18" s="239" t="s">
         <v>71</v>
       </c>
-      <c r="AE18" s="239"/>
+      <c r="AE18" s="240"/>
       <c r="AF18" s="30"/>
       <c r="AG18" s="76"/>
       <c r="AH18" s="97"/>
@@ -58653,20 +59857,20 @@
       <c r="M20" s="3"/>
       <c r="N20" s="28"/>
       <c r="O20" s="53"/>
-      <c r="P20" s="240"/>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="265" t="s">
+      <c r="P20" s="241"/>
+      <c r="Q20" s="242"/>
+      <c r="R20" s="266" t="s">
         <v>70</v>
       </c>
-      <c r="S20" s="266"/>
+      <c r="S20" s="267"/>
       <c r="T20" s="46"/>
       <c r="U20" s="53"/>
-      <c r="V20" s="236"/>
-      <c r="W20" s="237"/>
-      <c r="X20" s="265" t="s">
+      <c r="V20" s="237"/>
+      <c r="W20" s="238"/>
+      <c r="X20" s="266" t="s">
         <v>69</v>
       </c>
-      <c r="Y20" s="266"/>
+      <c r="Y20" s="267"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
       <c r="AB20" s="94"/>
@@ -58680,21 +59884,21 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="93"/>
-      <c r="AN20" s="242" t="s">
+      <c r="AN20" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="AO20" s="244"/>
-      <c r="AP20" s="243"/>
-      <c r="AQ20" s="262" t="s">
+      <c r="AO20" s="245"/>
+      <c r="AP20" s="244"/>
+      <c r="AQ20" s="263" t="s">
         <v>67</v>
       </c>
-      <c r="AR20" s="244"/>
-      <c r="AS20" s="243"/>
+      <c r="AR20" s="245"/>
+      <c r="AS20" s="244"/>
       <c r="AT20" s="3"/>
-      <c r="AU20" s="246" t="s">
+      <c r="AU20" s="247" t="s">
         <v>66</v>
       </c>
-      <c r="AV20" s="247"/>
+      <c r="AV20" s="248"/>
       <c r="AW20" s="80"/>
       <c r="AX20" s="7"/>
     </row>
@@ -58716,10 +59920,10 @@
       <c r="O21" s="42"/>
       <c r="P21" s="25"/>
       <c r="Q21" s="23"/>
-      <c r="R21" s="238" t="s">
+      <c r="R21" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="239"/>
+      <c r="S21" s="240"/>
       <c r="T21" s="29"/>
       <c r="U21" s="42"/>
       <c r="V21" s="25"/>
@@ -58739,19 +59943,19 @@
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-      <c r="AN21" s="238" t="s">
+      <c r="AN21" s="239" t="s">
         <v>64</v>
       </c>
-      <c r="AO21" s="245"/>
-      <c r="AP21" s="239"/>
-      <c r="AQ21" s="238"/>
-      <c r="AR21" s="245"/>
-      <c r="AS21" s="239"/>
+      <c r="AO21" s="246"/>
+      <c r="AP21" s="240"/>
+      <c r="AQ21" s="239"/>
+      <c r="AR21" s="246"/>
+      <c r="AS21" s="240"/>
       <c r="AT21" s="3"/>
-      <c r="AU21" s="248" t="s">
+      <c r="AU21" s="249" t="s">
         <v>63</v>
       </c>
-      <c r="AV21" s="249"/>
+      <c r="AV21" s="250"/>
       <c r="AW21" s="76"/>
       <c r="AX21" s="7"/>
     </row>
@@ -58759,24 +59963,24 @@
       <c r="A22" s="20"/>
       <c r="B22" s="55"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="240" t="s">
+      <c r="D22" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="241"/>
-      <c r="F22" s="236" t="s">
+      <c r="E22" s="242"/>
+      <c r="F22" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="237"/>
+      <c r="G22" s="238"/>
       <c r="H22" s="28"/>
       <c r="I22" s="53"/>
-      <c r="J22" s="240" t="s">
+      <c r="J22" s="241" t="s">
         <v>61</v>
       </c>
-      <c r="K22" s="241"/>
-      <c r="L22" s="236" t="s">
+      <c r="K22" s="242"/>
+      <c r="L22" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="237"/>
+      <c r="M22" s="238"/>
       <c r="N22" s="46"/>
       <c r="O22" s="53"/>
       <c r="P22" s="37"/>
@@ -58787,10 +59991,10 @@
       <c r="U22" s="53"/>
       <c r="V22" s="37"/>
       <c r="W22" s="36"/>
-      <c r="X22" s="242" t="s">
+      <c r="X22" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="Y22" s="243"/>
+      <c r="Y22" s="244"/>
       <c r="Z22" s="46"/>
       <c r="AA22" s="80"/>
       <c r="AB22" s="55"/>
@@ -58804,16 +60008,16 @@
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-      <c r="AN22" s="242" t="s">
+      <c r="AN22" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="AO22" s="244"/>
-      <c r="AP22" s="243"/>
-      <c r="AQ22" s="242" t="s">
+      <c r="AO22" s="245"/>
+      <c r="AP22" s="244"/>
+      <c r="AQ22" s="243" t="s">
         <v>21</v>
       </c>
-      <c r="AR22" s="244"/>
-      <c r="AS22" s="243"/>
+      <c r="AR22" s="245"/>
+      <c r="AS22" s="244"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="6"/>
       <c r="AV22" s="4"/>
@@ -58824,47 +60028,47 @@
       <c r="A23" s="20"/>
       <c r="B23" s="55"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="238"/>
-      <c r="E23" s="239"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="240"/>
       <c r="F23" s="25"/>
       <c r="G23" s="23"/>
       <c r="H23" s="28"/>
       <c r="I23" s="53"/>
-      <c r="J23" s="238" t="s">
+      <c r="J23" s="239" t="s">
         <v>58</v>
       </c>
-      <c r="K23" s="239"/>
+      <c r="K23" s="240"/>
       <c r="L23" s="25"/>
       <c r="M23" s="23"/>
       <c r="N23" s="46"/>
       <c r="O23" s="53"/>
-      <c r="P23" s="240" t="s">
+      <c r="P23" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="Q23" s="241"/>
-      <c r="R23" s="240" t="s">
+      <c r="Q23" s="242"/>
+      <c r="R23" s="241" t="s">
         <v>56</v>
       </c>
-      <c r="S23" s="241"/>
+      <c r="S23" s="242"/>
       <c r="T23" s="46"/>
       <c r="U23" s="53"/>
-      <c r="V23" s="236" t="s">
+      <c r="V23" s="237" t="s">
         <v>19</v>
       </c>
-      <c r="W23" s="237"/>
-      <c r="X23" s="265" t="s">
+      <c r="W23" s="238"/>
+      <c r="X23" s="266" t="s">
         <v>121</v>
       </c>
-      <c r="Y23" s="266"/>
+      <c r="Y23" s="267"/>
       <c r="Z23" s="46"/>
       <c r="AA23" s="3"/>
       <c r="AB23" s="55"/>
-      <c r="AC23" s="279" t="s">
+      <c r="AC23" s="280" t="s">
         <v>55</v>
       </c>
-      <c r="AD23" s="279"/>
-      <c r="AE23" s="279"/>
-      <c r="AF23" s="279"/>
+      <c r="AD23" s="280"/>
+      <c r="AE23" s="280"/>
+      <c r="AF23" s="280"/>
       <c r="AG23" s="80"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="3"/>
@@ -58872,14 +60076,14 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
       <c r="AM23" s="3"/>
-      <c r="AN23" s="238" t="s">
+      <c r="AN23" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="AO23" s="245"/>
-      <c r="AP23" s="239"/>
-      <c r="AQ23" s="238"/>
-      <c r="AR23" s="245"/>
-      <c r="AS23" s="239"/>
+      <c r="AO23" s="246"/>
+      <c r="AP23" s="240"/>
+      <c r="AQ23" s="239"/>
+      <c r="AR23" s="246"/>
+      <c r="AS23" s="240"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
@@ -58942,24 +60146,24 @@
       <c r="A25" s="20"/>
       <c r="B25" s="90"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="240" t="s">
+      <c r="D25" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="241"/>
-      <c r="F25" s="240" t="s">
+      <c r="E25" s="242"/>
+      <c r="F25" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="241"/>
+      <c r="G25" s="242"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="240" t="s">
+      <c r="J25" s="241" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="241"/>
-      <c r="L25" s="240" t="s">
+      <c r="K25" s="242"/>
+      <c r="L25" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="241"/>
+      <c r="M25" s="242"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -59099,11 +60303,11 @@
       <c r="AR27" s="19"/>
       <c r="AS27" s="19"/>
       <c r="AT27" s="19"/>
-      <c r="AU27" s="250" t="s">
+      <c r="AU27" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="AV27" s="251"/>
-      <c r="AW27" s="252"/>
+      <c r="AV27" s="252"/>
+      <c r="AW27" s="253"/>
       <c r="AX27" s="7"/>
     </row>
     <row r="28" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -59153,9 +60357,9 @@
       <c r="AR28" s="19"/>
       <c r="AS28" s="22"/>
       <c r="AT28" s="22"/>
-      <c r="AU28" s="253"/>
-      <c r="AV28" s="254"/>
-      <c r="AW28" s="255"/>
+      <c r="AU28" s="254"/>
+      <c r="AV28" s="255"/>
+      <c r="AW28" s="256"/>
       <c r="AX28" s="7"/>
     </row>
     <row r="29" spans="1:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -59224,10 +60428,10 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="256"/>
-      <c r="M30" s="256"/>
-      <c r="N30" s="256"/>
-      <c r="O30" s="256"/>
+      <c r="L30" s="257"/>
+      <c r="M30" s="257"/>
+      <c r="N30" s="257"/>
+      <c r="O30" s="257"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -59276,8 +60480,8 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="256"/>
-      <c r="M31" s="256"/>
+      <c r="L31" s="257"/>
+      <c r="M31" s="257"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="3"/>
@@ -59304,22 +60508,22 @@
       <c r="AI31" s="36"/>
       <c r="AJ31" s="60"/>
       <c r="AK31" s="28"/>
-      <c r="AL31" s="240" t="s">
+      <c r="AL31" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="AM31" s="241"/>
-      <c r="AN31" s="240" t="s">
+      <c r="AM31" s="242"/>
+      <c r="AN31" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AO31" s="241"/>
+      <c r="AO31" s="242"/>
       <c r="AP31" s="22"/>
       <c r="AQ31" s="22"/>
       <c r="AR31" s="37"/>
       <c r="AS31" s="36"/>
-      <c r="AT31" s="242" t="s">
+      <c r="AT31" s="243" t="s">
         <v>47</v>
       </c>
-      <c r="AU31" s="243"/>
+      <c r="AU31" s="244"/>
       <c r="AV31" s="28"/>
       <c r="AW31" s="21"/>
       <c r="AX31" s="7"/>
@@ -59360,26 +60564,26 @@
       <c r="AE32" s="28"/>
       <c r="AF32" s="28"/>
       <c r="AG32" s="28"/>
-      <c r="AH32" s="240" t="s">
+      <c r="AH32" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="AI32" s="241"/>
+      <c r="AI32" s="242"/>
       <c r="AJ32" s="43"/>
       <c r="AK32" s="56"/>
-      <c r="AL32" s="260"/>
-      <c r="AM32" s="261"/>
+      <c r="AL32" s="261"/>
+      <c r="AM32" s="262"/>
       <c r="AN32" s="25"/>
       <c r="AO32" s="23"/>
       <c r="AP32" s="30"/>
       <c r="AQ32" s="31"/>
-      <c r="AR32" s="240" t="s">
+      <c r="AR32" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="AS32" s="241"/>
-      <c r="AT32" s="263" t="s">
+      <c r="AS32" s="242"/>
+      <c r="AT32" s="264" t="s">
         <v>44</v>
       </c>
-      <c r="AU32" s="264"/>
+      <c r="AU32" s="265"/>
       <c r="AV32" s="28"/>
       <c r="AW32" s="21"/>
       <c r="AX32" s="7"/>
@@ -59396,10 +60600,10 @@
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="256"/>
-      <c r="M33" s="256"/>
-      <c r="N33" s="256"/>
-      <c r="O33" s="256"/>
+      <c r="L33" s="257"/>
+      <c r="M33" s="257"/>
+      <c r="N33" s="257"/>
+      <c r="O33" s="257"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -59418,10 +60622,10 @@
       <c r="AE33" s="28"/>
       <c r="AF33" s="28"/>
       <c r="AG33" s="28"/>
-      <c r="AH33" s="238" t="s">
+      <c r="AH33" s="239" t="s">
         <v>43</v>
       </c>
-      <c r="AI33" s="239"/>
+      <c r="AI33" s="240"/>
       <c r="AJ33" s="54"/>
       <c r="AK33" s="53"/>
       <c r="AL33" s="37"/>
@@ -59478,20 +60682,20 @@
       <c r="AI34" s="48"/>
       <c r="AJ34" s="43"/>
       <c r="AK34" s="42"/>
-      <c r="AL34" s="240" t="s">
+      <c r="AL34" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AM34" s="241"/>
-      <c r="AN34" s="240" t="s">
+      <c r="AM34" s="242"/>
+      <c r="AN34" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AO34" s="241"/>
+      <c r="AO34" s="242"/>
       <c r="AP34" s="30"/>
       <c r="AQ34" s="31"/>
-      <c r="AR34" s="242" t="s">
+      <c r="AR34" s="243" t="s">
         <v>41</v>
       </c>
-      <c r="AS34" s="243"/>
+      <c r="AS34" s="244"/>
       <c r="AT34" s="37"/>
       <c r="AU34" s="36"/>
       <c r="AV34" s="28"/>
@@ -59536,22 +60740,22 @@
       <c r="AI35" s="28"/>
       <c r="AJ35" s="43"/>
       <c r="AK35" s="42"/>
-      <c r="AL35" s="238" t="s">
+      <c r="AL35" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="AM35" s="239"/>
+      <c r="AM35" s="240"/>
       <c r="AN35" s="25"/>
       <c r="AO35" s="23"/>
       <c r="AP35" s="39"/>
       <c r="AQ35" s="40"/>
-      <c r="AR35" s="240" t="s">
+      <c r="AR35" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AS35" s="241"/>
-      <c r="AT35" s="240" t="s">
+      <c r="AS35" s="242"/>
+      <c r="AT35" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AU35" s="241"/>
+      <c r="AU35" s="242"/>
       <c r="AV35" s="28"/>
       <c r="AW35" s="21"/>
       <c r="AX35" s="7"/>
@@ -59567,41 +60771,41 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="276" t="s">
+      <c r="I36" s="277" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="276"/>
-      <c r="K36" s="276"/>
-      <c r="L36" s="276"/>
-      <c r="M36" s="276"/>
-      <c r="N36" s="276"/>
-      <c r="O36" s="276"/>
-      <c r="P36" s="276"/>
-      <c r="Q36" s="276"/>
-      <c r="R36" s="276"/>
+      <c r="J36" s="277"/>
+      <c r="K36" s="277"/>
+      <c r="L36" s="277"/>
+      <c r="M36" s="277"/>
+      <c r="N36" s="277"/>
+      <c r="O36" s="277"/>
+      <c r="P36" s="277"/>
+      <c r="Q36" s="277"/>
+      <c r="R36" s="277"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="19"/>
       <c r="V36" s="26"/>
       <c r="W36" s="22"/>
-      <c r="X36" s="240" t="s">
+      <c r="X36" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="Y36" s="241"/>
-      <c r="Z36" s="240" t="s">
+      <c r="Y36" s="242"/>
+      <c r="Z36" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AA36" s="241"/>
+      <c r="AA36" s="242"/>
       <c r="AB36" s="22"/>
       <c r="AC36" s="22"/>
-      <c r="AD36" s="240" t="s">
+      <c r="AD36" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AE36" s="241"/>
-      <c r="AF36" s="240" t="s">
+      <c r="AE36" s="242"/>
+      <c r="AF36" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="AG36" s="241"/>
+      <c r="AG36" s="242"/>
       <c r="AH36" s="29"/>
       <c r="AI36" s="28"/>
       <c r="AJ36" s="43"/>
@@ -59644,34 +60848,34 @@
       <c r="U37" s="19"/>
       <c r="V37" s="26"/>
       <c r="W37" s="22"/>
-      <c r="X37" s="238" t="s">
+      <c r="X37" s="239" t="s">
         <v>36</v>
       </c>
-      <c r="Y37" s="239"/>
+      <c r="Y37" s="240"/>
       <c r="Z37" s="25"/>
       <c r="AA37" s="23"/>
       <c r="AB37" s="22"/>
       <c r="AC37" s="22"/>
-      <c r="AD37" s="238" t="s">
+      <c r="AD37" s="239" t="s">
         <v>35</v>
       </c>
-      <c r="AE37" s="239"/>
-      <c r="AF37" s="238" t="s">
+      <c r="AE37" s="240"/>
+      <c r="AF37" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="AG37" s="239"/>
+      <c r="AG37" s="240"/>
       <c r="AH37" s="46"/>
       <c r="AI37" s="28"/>
       <c r="AJ37" s="43"/>
       <c r="AK37" s="42"/>
-      <c r="AL37" s="236" t="s">
+      <c r="AL37" s="237" t="s">
         <v>33</v>
       </c>
-      <c r="AM37" s="237"/>
-      <c r="AN37" s="240" t="s">
+      <c r="AM37" s="238"/>
+      <c r="AN37" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AO37" s="241"/>
+      <c r="AO37" s="242"/>
       <c r="AP37" s="30"/>
       <c r="AQ37" s="31"/>
       <c r="AR37" s="37"/>
@@ -59722,20 +60926,20 @@
       <c r="AI38" s="28"/>
       <c r="AJ38" s="43"/>
       <c r="AK38" s="42"/>
-      <c r="AL38" s="238"/>
-      <c r="AM38" s="239"/>
+      <c r="AL38" s="239"/>
+      <c r="AM38" s="240"/>
       <c r="AN38" s="25"/>
       <c r="AO38" s="23"/>
       <c r="AP38" s="39"/>
       <c r="AQ38" s="40"/>
-      <c r="AR38" s="265" t="s">
+      <c r="AR38" s="266" t="s">
         <v>31</v>
       </c>
-      <c r="AS38" s="266"/>
-      <c r="AT38" s="240" t="s">
+      <c r="AS38" s="267"/>
+      <c r="AT38" s="241" t="s">
         <v>30</v>
       </c>
-      <c r="AU38" s="241"/>
+      <c r="AU38" s="242"/>
       <c r="AV38" s="28"/>
       <c r="AW38" s="21"/>
       <c r="AX38" s="7"/>
@@ -59766,24 +60970,24 @@
       <c r="U39" s="19"/>
       <c r="V39" s="26"/>
       <c r="W39" s="31"/>
-      <c r="X39" s="240" t="s">
+      <c r="X39" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="Y39" s="241"/>
-      <c r="Z39" s="240" t="s">
+      <c r="Y39" s="242"/>
+      <c r="Z39" s="241" t="s">
         <v>28</v>
       </c>
-      <c r="AA39" s="241"/>
+      <c r="AA39" s="242"/>
       <c r="AB39" s="30"/>
       <c r="AC39" s="22"/>
-      <c r="AD39" s="240" t="s">
+      <c r="AD39" s="241" t="s">
         <v>27</v>
       </c>
-      <c r="AE39" s="241"/>
-      <c r="AF39" s="240" t="s">
+      <c r="AE39" s="242"/>
+      <c r="AF39" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AG39" s="241"/>
+      <c r="AG39" s="242"/>
       <c r="AH39" s="29"/>
       <c r="AI39" s="28"/>
       <c r="AJ39" s="28"/>
@@ -59796,10 +61000,10 @@
       <c r="AQ39" s="40"/>
       <c r="AR39" s="35"/>
       <c r="AS39" s="34"/>
-      <c r="AT39" s="238" t="s">
+      <c r="AT39" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="AU39" s="239"/>
+      <c r="AU39" s="240"/>
       <c r="AV39" s="28"/>
       <c r="AW39" s="21"/>
       <c r="AX39" s="7"/>
@@ -59832,10 +61036,10 @@
       <c r="W40" s="31"/>
       <c r="X40" s="25"/>
       <c r="Y40" s="23"/>
-      <c r="Z40" s="238" t="s">
+      <c r="Z40" s="239" t="s">
         <v>24</v>
       </c>
-      <c r="AA40" s="239"/>
+      <c r="AA40" s="240"/>
       <c r="AB40" s="39"/>
       <c r="AC40" s="22"/>
       <c r="AD40" s="25"/>
@@ -59846,20 +61050,20 @@
       <c r="AI40" s="28"/>
       <c r="AJ40" s="28"/>
       <c r="AK40" s="28"/>
-      <c r="AL40" s="240" t="s">
+      <c r="AL40" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="AM40" s="241"/>
-      <c r="AN40" s="240" t="s">
+      <c r="AM40" s="242"/>
+      <c r="AN40" s="241" t="s">
         <v>23</v>
       </c>
-      <c r="AO40" s="241"/>
+      <c r="AO40" s="242"/>
       <c r="AP40" s="22"/>
       <c r="AQ40" s="31"/>
       <c r="AR40" s="37"/>
       <c r="AS40" s="36"/>
-      <c r="AT40" s="242"/>
-      <c r="AU40" s="243"/>
+      <c r="AT40" s="243"/>
+      <c r="AU40" s="244"/>
       <c r="AV40" s="28"/>
       <c r="AW40" s="21"/>
       <c r="AX40" s="7"/>
@@ -59908,14 +61112,14 @@
       <c r="AO41" s="23"/>
       <c r="AP41" s="22"/>
       <c r="AQ41" s="22"/>
-      <c r="AR41" s="240" t="s">
+      <c r="AR41" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="AS41" s="241"/>
-      <c r="AT41" s="240" t="s">
+      <c r="AS41" s="242"/>
+      <c r="AT41" s="241" t="s">
         <v>21</v>
       </c>
-      <c r="AU41" s="241"/>
+      <c r="AU41" s="242"/>
       <c r="AV41" s="28"/>
       <c r="AW41" s="21"/>
       <c r="AX41" s="7"/>
@@ -59946,33 +61150,33 @@
       <c r="U42" s="19"/>
       <c r="V42" s="26"/>
       <c r="W42" s="31"/>
-      <c r="X42" s="240" t="s">
+      <c r="X42" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="Y42" s="241"/>
-      <c r="Z42" s="240" t="s">
+      <c r="Y42" s="242"/>
+      <c r="Z42" s="241" t="s">
         <v>18</v>
       </c>
-      <c r="AA42" s="241"/>
+      <c r="AA42" s="242"/>
       <c r="AB42" s="30"/>
       <c r="AC42" s="22"/>
-      <c r="AD42" s="240" t="s">
+      <c r="AD42" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="AE42" s="241"/>
-      <c r="AF42" s="240" t="s">
+      <c r="AE42" s="242"/>
+      <c r="AF42" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="AG42" s="241"/>
+      <c r="AG42" s="242"/>
       <c r="AH42" s="29"/>
       <c r="AI42" s="28"/>
       <c r="AJ42" s="28"/>
       <c r="AK42" s="28"/>
       <c r="AL42" s="37"/>
-      <c r="AM42" s="244" t="s">
+      <c r="AM42" s="245" t="s">
         <v>15</v>
       </c>
-      <c r="AN42" s="244"/>
+      <c r="AN42" s="245"/>
       <c r="AO42" s="36"/>
       <c r="AP42" s="22"/>
       <c r="AQ42" s="22"/>
@@ -60004,28 +61208,28 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="33"/>
-      <c r="P43" s="277" t="s">
+      <c r="P43" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="277"/>
-      <c r="R43" s="277"/>
+      <c r="Q43" s="278"/>
+      <c r="R43" s="278"/>
       <c r="S43" s="32"/>
       <c r="T43" s="3"/>
       <c r="U43" s="19"/>
       <c r="V43" s="26"/>
       <c r="W43" s="31"/>
-      <c r="X43" s="238"/>
-      <c r="Y43" s="239"/>
+      <c r="X43" s="239"/>
+      <c r="Y43" s="240"/>
       <c r="Z43" s="25"/>
       <c r="AA43" s="23"/>
       <c r="AB43" s="30"/>
       <c r="AC43" s="22"/>
-      <c r="AD43" s="238"/>
-      <c r="AE43" s="239"/>
-      <c r="AF43" s="238" t="s">
+      <c r="AD43" s="239"/>
+      <c r="AE43" s="240"/>
+      <c r="AF43" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="AG43" s="239"/>
+      <c r="AG43" s="240"/>
       <c r="AH43" s="29"/>
       <c r="AI43" s="28"/>
       <c r="AJ43" s="27"/>
@@ -60062,9 +61266,9 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="6"/>
-      <c r="P44" s="278"/>
-      <c r="Q44" s="278"/>
-      <c r="R44" s="278"/>
+      <c r="P44" s="279"/>
+      <c r="Q44" s="279"/>
+      <c r="R44" s="279"/>
       <c r="S44" s="4"/>
       <c r="T44" s="3"/>
       <c r="U44" s="19"/>
@@ -60300,8 +61504,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -61353,6 +62557,9 @@
       <c r="J41" t="s">
         <v>4358</v>
       </c>
+      <c r="M41" t="s">
+        <v>4462</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
@@ -61367,6 +62574,9 @@
       <c r="J42" t="s">
         <v>4357</v>
       </c>
+      <c r="M42" t="s">
+        <v>4463</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
@@ -61381,6 +62591,9 @@
       <c r="J43" t="s">
         <v>4366</v>
       </c>
+      <c r="M43" t="s">
+        <v>4464</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
@@ -61395,6 +62608,9 @@
       <c r="J44" t="s">
         <v>4367</v>
       </c>
+      <c r="M44" t="s">
+        <v>4465</v>
+      </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
@@ -61409,38 +62625,54 @@
       <c r="J45" t="s">
         <v>4358</v>
       </c>
+      <c r="M45" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M47" t="s">
+        <v>4467</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="235" t="s">
         <v>4368</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>4369</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M50" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>4447</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>4448</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="M52" s="236" t="s">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>4449</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>4450</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>4451</v>
       </c>
@@ -61656,10 +62888,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E857"/>
+  <dimension ref="A1:E882"/>
   <sheetViews>
-    <sheetView topLeftCell="A847" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D858" sqref="D858"/>
+    <sheetView topLeftCell="A874" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B887" sqref="B887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -71642,6 +72874,278 @@
       </c>
       <c r="D857" s="172" t="s">
         <v>4446</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A858" s="172" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B858" s="172" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A859" s="172" t="s">
+        <v>4477</v>
+      </c>
+      <c r="B859" s="172" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A860" s="172" t="s">
+        <v>4479</v>
+      </c>
+      <c r="B860" s="172" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C860" s="172" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D860" s="172" t="s">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A861" s="172" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B861" s="172" t="s">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A862" s="172" t="s">
+        <v>4484</v>
+      </c>
+      <c r="B862" s="172" t="s">
+        <v>4485</v>
+      </c>
+      <c r="D862" s="172" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A863" s="172" t="s">
+        <v>4487</v>
+      </c>
+      <c r="B863" s="172" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D863" s="172" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A864" s="172" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B864" s="172" t="s">
+        <v>4491</v>
+      </c>
+      <c r="D864" s="172" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A865" s="172" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B865" s="172" t="s">
+        <v>4494</v>
+      </c>
+      <c r="C865" s="172" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D865" s="172" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A866" s="172" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B866" s="172" t="s">
+        <v>4497</v>
+      </c>
+      <c r="D866" s="172" t="s">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A867" s="172" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B867" s="172" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C867" s="172" t="s">
+        <v>4502</v>
+      </c>
+      <c r="D867" s="173" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A868" s="172" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B868" s="172" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C868" s="172" t="s">
+        <v>3155</v>
+      </c>
+      <c r="D868" s="172" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A869" s="172" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B869" s="172" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D869" s="173" t="s">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A870" s="172" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B870" s="172" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D870" s="172" t="s">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A871" s="172" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B871" s="172" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A872" s="172" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B872" s="172" t="s">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A873" s="172" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B873" s="172" t="s">
+        <v>4517</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A874" s="172" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B874" s="172" t="s">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A875" s="172" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B875" s="172" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C875" s="172" t="s">
+        <v>4525</v>
+      </c>
+      <c r="D875" s="173" t="s">
+        <v>4524</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A876" s="172" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B876" s="172" t="s">
+        <v>4527</v>
+      </c>
+      <c r="D876" s="172" t="s">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A877" s="172" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B877" s="172" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C877" s="172" t="s">
+        <v>4532</v>
+      </c>
+      <c r="D877" s="218" t="s">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A878" s="172" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B878" s="172" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C878" s="172" t="s">
+        <v>424</v>
+      </c>
+      <c r="D878" s="172" t="s">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A879" s="172" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B879" s="172" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C879" s="172" t="s">
+        <v>4538</v>
+      </c>
+      <c r="D879" s="172" t="s">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A880" s="172" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B880" s="172" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A881" s="172" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B881" s="172" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C881" s="172" t="s">
+        <v>424</v>
+      </c>
+      <c r="D881" s="172" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A882" s="172" t="s">
+        <v>4555</v>
       </c>
     </row>
   </sheetData>
@@ -71662,10 +73166,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -72964,6 +74468,17 @@
         <v>4425</v>
       </c>
     </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118" s="172" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B118" s="172" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C118" s="172" t="s">
+        <v>4520</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -72973,10 +74488,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:L77"/>
+  <dimension ref="A2:L93"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -73521,6 +75036,72 @@
     <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>4461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" s="283" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4556</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4558</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4557</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4560</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4562</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4563</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4565</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4566</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -73534,7 +75115,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
